--- a/Trasmission/Design.xlsx
+++ b/Trasmission/Design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Progetti\Formula 1000\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Progetti\Formula 1000\Trasmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59338C7-386D-4681-AB28-2CDC70AFAE21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D3FADF-20BC-4300-BFCF-F8AC02806176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BC5AFE34-4024-4D0A-8AC1-E2E766C0613E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BC5AFE34-4024-4D0A-8AC1-E2E766C0613E}"/>
   </bookViews>
   <sheets>
     <sheet name="Engine" sheetId="1" r:id="rId1"/>
@@ -187,9 +187,6 @@
     <t>Static rear axle load</t>
   </si>
   <si>
-    <t>wheelbase</t>
-  </si>
-  <si>
     <t>mm</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
   </si>
   <si>
     <t>Speed_wheel_shaft [rpm]</t>
+  </si>
+  <si>
+    <t>Wheelbase</t>
   </si>
 </sst>
 </file>
@@ -500,9 +500,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -527,6 +524,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,17 +553,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12218D-C6E8-4EBB-9946-9CEF0DD77B72}">
   <dimension ref="C2:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,6 +886,7 @@
     <col min="10" max="10" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.77734375" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:14" ht="18" x14ac:dyDescent="0.3">
@@ -911,19 +912,19 @@
       <c r="L2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="35" t="s">
-        <v>61</v>
+      <c r="N2" s="34" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="3:14" ht="18" x14ac:dyDescent="0.3">
       <c r="J3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3250</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2000</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="3:14" ht="52.2" x14ac:dyDescent="0.3">
@@ -937,9 +938,9 @@
       <c r="J4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="32">
         <f>(K2*K3*0.55)/K3</f>
-        <v>2643.795000000001</v>
+        <v>2643.7950000000005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>48</v>
@@ -954,9 +955,9 @@
       </c>
       <c r="E5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="33">
+        <v>51</v>
+      </c>
+      <c r="K5" s="32">
         <f>(K2*K3*0.45)/K3</f>
         <v>2163.1050000000005</v>
       </c>
@@ -973,13 +974,13 @@
       </c>
       <c r="E6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6" s="2">
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="3:14" ht="18" x14ac:dyDescent="0.3">
@@ -993,7 +994,7 @@
         <v>55.1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K7" s="2">
         <v>1.5</v>
@@ -1011,9 +1012,9 @@
         <v>12</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="33">
+        <v>53</v>
+      </c>
+      <c r="K8" s="32">
         <f>(K4*K7)/(1-((K6*K7)/K3))</f>
         <v>4665.5205882352957</v>
       </c>
@@ -1032,11 +1033,11 @@
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="33">
+        <v>54</v>
+      </c>
+      <c r="K9" s="32">
         <f>K8*K6/K3</f>
-        <v>466.55205882352959</v>
+        <v>466.55205882352953</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>48</v>
@@ -1053,11 +1054,11 @@
         <v>21</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="33">
+        <v>55</v>
+      </c>
+      <c r="K10" s="32">
         <f>(K4+K9)/2</f>
-        <v>1555.1735294117652</v>
+        <v>1555.173529411765</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>48</v>
@@ -1072,9 +1073,9 @@
       </c>
       <c r="E11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="33">
+        <v>56</v>
+      </c>
+      <c r="K11" s="32">
         <f>(K5-K9)/2</f>
         <v>848.2764705882355</v>
       </c>
@@ -1086,23 +1087,23 @@
       <c r="J12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="52">
         <v>0.33019999999999999</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="J13" s="31" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="3:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="J13" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="34">
+      <c r="K13" s="33">
         <f>2*K10*K12*1.5</f>
         <v>1540.5548982352943</v>
       </c>
-      <c r="L13" s="32" t="s">
-        <v>60</v>
+      <c r="L13" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="18" x14ac:dyDescent="0.3">
@@ -1123,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B7CDDE-716A-454C-B0BE-26BD4F945DE3}">
   <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,7 +1143,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="39"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="10" t="s">
         <v>28</v>
       </c>
@@ -1158,12 +1159,12 @@
       <c r="G1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
@@ -1246,7 +1247,7 @@
         <f t="shared" ref="G4:G8" si="5">(($E$14*PI()*$E$15*60)/1000)/E4</f>
         <v>80.845705987908985</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="36"/>
       <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1279,7 +1280,7 @@
         <f t="shared" si="5"/>
         <v>140.97469981641632</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="36"/>
       <c r="K5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1312,7 +1313,7 @@
         <f t="shared" si="5"/>
         <v>179.01549183036994</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="36"/>
       <c r="K6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1345,7 +1346,7 @@
         <f t="shared" si="5"/>
         <v>211.04984300001504</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="36"/>
       <c r="K7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1378,10 +1379,10 @@
         <f t="shared" si="5"/>
         <v>250.62168856251787</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="45"/>
+      <c r="I8" s="49"/>
       <c r="K8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1394,7 +1395,7 @@
       <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>3.5625</v>
       </c>
       <c r="D9" s="19"/>
@@ -1421,10 +1422,10 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1480,14 +1481,14 @@
         <v>127.5</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
@@ -1520,7 +1521,8 @@
       <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
+        <f>Engine!K12</f>
         <v>0.33019999999999999</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -1542,10 +1544,10 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D16" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="38">
+      <c r="D16" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="37">
         <v>5</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -1631,68 +1633,68 @@
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="48"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="41"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="48"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="41"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="48"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="41"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="48"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="41"/>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="48"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="41"/>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="48"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="41"/>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="48"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="41"/>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1725,7 +1727,7 @@
   </cols>
   <sheetData>
     <row r="7" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F7" s="41"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="8" t="s">
         <v>28</v>
       </c>
@@ -1906,20 +1908,20 @@
       <c r="F15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="35">
         <v>3.5625</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="39">
         <v>16</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="39">
         <v>57</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="39">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="39" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Trasmission/Design.xlsx
+++ b/Trasmission/Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Progetti\Formula 1000\Trasmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D3FADF-20BC-4300-BFCF-F8AC02806176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C03353A-B814-4B5C-B02B-34C5FDF2F617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BC5AFE34-4024-4D0A-8AC1-E2E766C0613E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>Type</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>At this point max speed ---&gt;</t>
-  </si>
-  <si>
-    <t>max deceleration (g)</t>
   </si>
   <si>
     <t>&lt;--- max 273</t>
@@ -535,6 +532,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,9 +552,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -874,7 +871,7 @@
   <dimension ref="C2:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,28 +900,28 @@
         <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2">
         <f xml:space="preserve"> 490 * 9.81</f>
         <v>4806.9000000000005</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="3:14" ht="18" x14ac:dyDescent="0.3">
       <c r="J3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3" s="2">
         <v>3250</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="3:14" ht="52.2" x14ac:dyDescent="0.3">
@@ -936,14 +933,14 @@
       </c>
       <c r="E4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" s="32">
         <f>(K2*K3*0.55)/K3</f>
         <v>2643.7950000000005</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="3:14" ht="18" x14ac:dyDescent="0.3">
@@ -955,14 +952,14 @@
       </c>
       <c r="E5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" s="32">
         <f>(K2*K3*0.45)/K3</f>
         <v>2163.1050000000005</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="3:14" ht="18" x14ac:dyDescent="0.3">
@@ -974,13 +971,13 @@
       </c>
       <c r="E6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2">
         <v>325</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="3:14" ht="18" x14ac:dyDescent="0.3">
@@ -994,10 +991,10 @@
         <v>55.1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K7" s="2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -1012,14 +1009,14 @@
         <v>12</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8" s="32">
         <f>(K4*K7)/(1-((K6*K7)/K3))</f>
-        <v>4665.5205882352957</v>
+        <v>3605.1750000000006</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="18" x14ac:dyDescent="0.3">
@@ -1033,14 +1030,14 @@
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="32">
         <f>K8*K6/K3</f>
-        <v>466.55205882352953</v>
+        <v>360.5175000000001</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="18" x14ac:dyDescent="0.3">
@@ -1054,14 +1051,14 @@
         <v>21</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="32">
         <f>(K4+K9)/2</f>
-        <v>1555.173529411765</v>
+        <v>1502.1562500000002</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="18" x14ac:dyDescent="0.3">
@@ -1073,37 +1070,37 @@
       </c>
       <c r="E11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11" s="32">
         <f>(K5-K9)/2</f>
-        <v>848.2764705882355</v>
+        <v>901.29375000000016</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="18" x14ac:dyDescent="0.35">
       <c r="J12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="46">
         <v>0.33019999999999999</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="18" x14ac:dyDescent="0.35">
       <c r="J13" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="33">
+        <f>2*K10*K12*K7</f>
+        <v>1190.4287850000001</v>
+      </c>
+      <c r="L13" s="31" t="s">
         <v>58</v>
-      </c>
-      <c r="K13" s="33">
-        <f>2*K10*K12*1.5</f>
-        <v>1540.5548982352943</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="18" x14ac:dyDescent="0.3">
@@ -1125,7 +1122,7 @@
   <dimension ref="B1:L28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,23 +1145,23 @@
         <v>28</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="F1" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
@@ -1188,7 +1185,7 @@
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -1209,7 +1206,7 @@
       </c>
       <c r="F3" s="15">
         <f t="shared" ref="F3:F8" si="2">$E$12/E3</f>
-        <v>99.410681071847989</v>
+        <v>76.817344464609803</v>
       </c>
       <c r="G3" s="7">
         <f>(($E$14*PI()*$E$15*60)/1000)/E3</f>
@@ -1241,7 +1238,7 @@
       </c>
       <c r="F4" s="15">
         <f t="shared" si="2"/>
-        <v>153.92621585318398</v>
+        <v>118.94298497746034</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" ref="G4:G8" si="5">(($E$14*PI()*$E$15*60)/1000)/E4</f>
@@ -1274,7 +1271,7 @@
       </c>
       <c r="F5" s="15">
         <f t="shared" si="2"/>
-        <v>268.40883889398958</v>
+        <v>207.40683005444649</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="5"/>
@@ -1307,7 +1304,7 @@
       </c>
       <c r="F6" s="15">
         <f t="shared" si="2"/>
-        <v>340.83662081776458</v>
+        <v>263.37375245009076</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="5"/>
@@ -1340,7 +1337,7 @@
       </c>
       <c r="F7" s="15">
         <f t="shared" si="2"/>
-        <v>401.82843717462765</v>
+        <v>310.50379236221227</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="5"/>
@@ -1373,16 +1370,16 @@
       </c>
       <c r="F8" s="15">
         <f t="shared" si="2"/>
-        <v>477.17126914487034</v>
+        <v>368.72325343012704</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="5"/>
         <v>250.62168856251787</v>
       </c>
-      <c r="H8" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="49"/>
+      <c r="H8" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="50"/>
       <c r="K8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1418,20 +1415,20 @@
         <v>32</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="11">
         <f>Engine!K13</f>
-        <v>1540.5548982352943</v>
+        <v>1190.4287850000001</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>14</v>
@@ -1481,14 +1478,14 @@
         <v>127.5</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
@@ -1545,7 +1542,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D16" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="37">
         <v>5</v>
@@ -1570,10 +1567,10 @@
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="5">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="E17" s="22">
+        <v>100</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>19</v>
@@ -1594,11 +1591,12 @@
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="22">
-        <v>100</v>
+      <c r="D18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="9">
+        <f>E12/E17</f>
+        <v>11.904287850000001</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>27</v>
@@ -1614,23 +1612,14 @@
       <c r="K18" s="27"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="9">
-        <f>E12/E18</f>
-        <v>15.405548982352943</v>
+      <c r="D19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="12" t="b">
+        <f>E18&lt;E3</f>
+        <v>1</v>
       </c>
       <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="12" t="b">
-        <f>E19&lt;E3</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="G21" s="45"/>
